--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e571bad7633044e/Documents/School/Revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C6095C4E-B555-48A6-AC82-B43EC7C738A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DF8D8F-113A-47C7-8B30-32119C03F811}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{C6095C4E-B555-48A6-AC82-B43EC7C738A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7E96E-361D-44B9-A932-5BFDAA40CC88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timetable" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Timetable!$B$4:$Z$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Mon 9th</t>
   </si>
@@ -181,9 +183,6 @@
     <t>Break</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Biology Paper 1 Exam</t>
   </si>
   <si>
@@ -245,15 +244,140 @@
   </si>
   <si>
     <t>Physics Paper 2 Exam</t>
+  </si>
+  <si>
+    <t>English (at School)</t>
+  </si>
+  <si>
+    <t>Maths (at School)</t>
+  </si>
+  <si>
+    <t>Piano 11:05</t>
+  </si>
+  <si>
+    <t>MyTutor English (3:15-4:15)</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>at School</t>
+  </si>
+  <si>
+    <t>Piano Lessons</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Computer Science (at School)</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>English(?) (at School)</t>
+  </si>
+  <si>
+    <t>History (at School)</t>
+  </si>
+  <si>
+    <t>Timings:</t>
+  </si>
+  <si>
+    <t>Lunch - 12:25-1:05</t>
+  </si>
+  <si>
+    <t>Maths(?) (at School)</t>
+  </si>
+  <si>
+    <t>Science (at School)</t>
+  </si>
+  <si>
+    <t>Geography (at School)</t>
+  </si>
+  <si>
+    <t>Science (?)</t>
+  </si>
+  <si>
+    <t>Comp Sci (at School)</t>
+  </si>
+  <si>
+    <t>Comp Sci (?)</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Music (at School)</t>
+  </si>
+  <si>
+    <t>Music (?) (at School)</t>
+  </si>
+  <si>
+    <t>History(?)</t>
+  </si>
+  <si>
+    <t>English (at School) (?)</t>
+  </si>
+  <si>
+    <t>History (?)</t>
+  </si>
+  <si>
+    <t>Optional/Unconfirmed(?)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>P1 - 8:55-9:55</t>
+  </si>
+  <si>
+    <t>Break - 9:55-10:20</t>
+  </si>
+  <si>
+    <t>P2 - 10:20-11:15</t>
+  </si>
+  <si>
+    <t>P3 - 11:15-12:25</t>
+  </si>
+  <si>
+    <t>P4 - 1:05-2:05</t>
+  </si>
+  <si>
+    <t>P5 - 2:05-3:00</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Science (?) (at School)</t>
+  </si>
+  <si>
+    <t>Half Term</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -300,28 +424,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,14 +449,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -348,6 +464,33 @@
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
       <border>
@@ -428,20 +571,7 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
       <border>
@@ -468,34 +598,7 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF33CC"/>
         </patternFill>
       </fill>
       <border>
@@ -549,7 +652,7 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
       <border>
@@ -576,7 +679,71 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkTrellis">
+          <fgColor rgb="FF002060"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
       <border>
@@ -603,43 +770,49 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0"/>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="darkTrellis">
+          <fgColor rgb="FF002060"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -950,12 +1123,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644BB53C-A9DE-4F27-9B23-53046B971FB5}">
-  <dimension ref="B4:Z60"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B4:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14:L15"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +1139,7 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
         <v>0.375</v>
       </c>
@@ -1033,785 +1209,904 @@
       <c r="Z4" s="2">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="O6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="V9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="3"/>
-      <c r="Z9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="Z10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="R11" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="3"/>
-      <c r="Z11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="V12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W12" s="3"/>
-      <c r="Z12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="V12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="3"/>
-      <c r="Z13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" s="3"/>
-      <c r="Z14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="3"/>
-      <c r="Z15" t="s">
-        <v>48</v>
-      </c>
+      <c r="V15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="6"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="V17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="Z17" t="s">
-        <v>48</v>
-      </c>
+      <c r="I17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="V18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="Z18" t="s">
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="4"/>
+      <c r="V18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="V19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="Z19" t="s">
-        <v>48</v>
-      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="V19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="V20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20" s="3"/>
-      <c r="Z20" t="s">
-        <v>48</v>
-      </c>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="V20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="V21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W21" s="3"/>
-      <c r="Z21" t="s">
-        <v>48</v>
-      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="V21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="3"/>
+      <c r="V22" t="s">
+        <v>103</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="6"/>
       <c r="Z22" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="Z23" t="s">
-        <v>48</v>
-      </c>
+      <c r="V23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="6"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="V25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W25" s="3"/>
-      <c r="Z25" t="s">
-        <v>48</v>
-      </c>
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="V25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="Z26" t="s">
-        <v>48</v>
-      </c>
+      <c r="D26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="V26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="V27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W27" s="3"/>
-      <c r="Z27" t="s">
-        <v>48</v>
-      </c>
+      <c r="D27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W28" s="3"/>
-      <c r="Z28" t="s">
-        <v>48</v>
-      </c>
+      <c r="D28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="V28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="V29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W29" s="3"/>
-      <c r="Z29" t="s">
-        <v>48</v>
-      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="V29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W29" s="6"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="Z30" t="s">
-        <v>48</v>
-      </c>
+      <c r="V30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="Z31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W33" s="3"/>
-      <c r="Z33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W34" s="3"/>
-      <c r="Z34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W35" s="3"/>
-      <c r="Z35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W36" s="3"/>
-      <c r="Z36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W37" s="3"/>
-      <c r="Z37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W38" s="3"/>
-      <c r="Z38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W39" s="3"/>
-      <c r="Z39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W41" s="3"/>
-      <c r="Z41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="N42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="N42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="V42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W42" s="3"/>
-      <c r="Z42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="V42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="V43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W43" s="3"/>
-      <c r="Z43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="V43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="N44" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="N44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="V44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W44" s="3"/>
-      <c r="Z44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="V44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W45" s="3"/>
-      <c r="Z45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W46" s="3"/>
-      <c r="Z46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W47" s="3"/>
-      <c r="Z47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W47" s="6"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="V49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="Z49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="V49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="V50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W50" s="3"/>
-      <c r="Z50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="V50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="V51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W51" s="3"/>
-      <c r="Z51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="V51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="V52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W52" s="3"/>
-      <c r="Z52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="V52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W53" s="3"/>
-      <c r="Z53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W53" s="6"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W54" s="3"/>
-      <c r="Z54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V54" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W55" s="3"/>
-      <c r="Z55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" s="6"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="V57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W57" s="3"/>
-      <c r="Z57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="S57" t="s">
+        <v>96</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W58" s="3"/>
-      <c r="Z58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="V58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W58" s="6"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="V59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W59" s="3"/>
-      <c r="Z59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="V59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W59" s="6"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="V60" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W60" s="3"/>
-      <c r="Z60" t="s">
-        <v>48</v>
-      </c>
+      <c r="D60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="V60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W60" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="D12:J12"/>
+  <mergeCells count="109">
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="V13:W13"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="V57:W57"/>
     <mergeCell ref="V58:W58"/>
     <mergeCell ref="V59:W59"/>
@@ -1828,9 +2123,17 @@
     <mergeCell ref="V44:W44"/>
     <mergeCell ref="V45:W45"/>
     <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="V55:W55"/>
     <mergeCell ref="V47:W47"/>
@@ -1844,6 +2147,24 @@
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:F50"/>
@@ -1854,34 +2175,68 @@
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B23:Z24 B19:C22 D18:D21 I19:Z22 H20:H21 B18:D18 H18:Z18 B8:Z8 B7:C7 D4:Z4 B26:Z26 B25:D25 H25:Z25 B28:Z28 B27:D27 H27:Z27 B30:Z33 B29:D29 H29:N29 S29:Z29 B34:C41 R34:Z41 B42:Z49 B53:Z56 G50:Z50 H51:Z51 B50:D52 G52:Z52 B58:Z58 B57:D57 H57:Z57 B59:D60 H59:Z60 B10:Z17 B9:D9 S9:Z9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Break"</formula>
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 Q26:Z26 A26:D26 A27:I27 L25:M25 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 A22:U22 Z22 W22 A30:Z49">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
+      <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Piano">
+      <formula>NOT(ISERROR(SEARCH("Piano",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="at School">
+      <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:Z8 B10:Z60 B9:D9 S9:Z9">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"End"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"School"</formula>
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 Q26:W26 C26:D26 C27:I27 L25:M25 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 O28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 G28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:U22 W22 C30:W49">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="16">
+      <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="L17:L18">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="(?)">
+      <formula>NOT(ISERROR(SEARCH("(?)",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Piano">
+      <formula>NOT(ISERROR(SEARCH("Piano",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="at School">
+      <formula>NOT(ISERROR(SEARCH("at School",L17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1D777A30-1DFE-490D-AC42-36DF0063B51D}">
-            <xm:f>NOT(ISERROR(SEARCH("Exam",B4)))</xm:f>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{1D777A30-1DFE-490D-AC42-36DF0063B51D}">
+            <xm:f>NOT(ISERROR(SEARCH("Exam",A5)))</xm:f>
             <xm:f>"Exam"</xm:f>
             <x14:dxf>
               <font>
@@ -1911,7 +2266,196 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B4:Z8 B10:Z60 B9:D9 S9:Z9</xm:sqref>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{CC5E7F00-2488-435B-8E5C-73F28C0BA45A}">
+            <xm:f>NOT(ISERROR(SEARCH("Break",A5)))</xm:f>
+            <xm:f>"Break"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FFFF33CC"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{BCEA9FDC-29C7-40D3-B7FF-8716521EA49A}">
+            <xm:f>NOT(ISERROR(SEARCH("School",A5)))</xm:f>
+            <xm:f>"School"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 Q26:Z26 A26:D26 A27:I27 L25:M25 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 A22:U22 Z22 W22 A30:Z49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">
+            <xm:f>NOT(ISERROR(SEARCH("Exam",L17)))</xm:f>
+            <xm:f>"Exam"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{0471554C-E595-47AA-BBE5-01326C4E5649}">
+            <xm:f>NOT(ISERROR(SEARCH("End",L17)))</xm:f>
+            <xm:f>"End"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{486CF798-6273-45A4-90DA-B723E34942F2}">
+            <xm:f>NOT(ISERROR(SEARCH("Break",L17)))</xm:f>
+            <xm:f>"Break"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FFFF33CC"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{ADFFB016-CE0E-4264-9669-A7A6B8F7C605}">
+            <xm:f>NOT(ISERROR(SEARCH("School",L17)))</xm:f>
+            <xm:f>"School"</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="darkDown">
+                  <fgColor theme="0"/>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color auto="1"/>
+                </left>
+                <right style="thin">
+                  <color auto="1"/>
+                </right>
+                <top style="thin">
+                  <color auto="1"/>
+                </top>
+                <bottom style="thin">
+                  <color auto="1"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L17:L18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e571bad7633044e/Documents/School/Revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-J\OneDrive\Documents\School\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{C6095C4E-B555-48A6-AC82-B43EC7C738A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7E96E-361D-44B9-A932-5BFDAA40CC88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBE95A-EFB0-4346-9E8D-D5578265D1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Timetable!$B$4:$Z$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,11 +38,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>Optional/Unconfirmed(?)</t>
+  </si>
+  <si>
+    <t>at School</t>
+  </si>
+  <si>
+    <t>Piano Lessons</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Timings:</t>
+  </si>
+  <si>
+    <t>P1 - 8:55-9:55</t>
+  </si>
+  <si>
+    <t>Break - 9:55-10:20</t>
+  </si>
+  <si>
+    <t>P2 - 10:20-11:15</t>
+  </si>
+  <si>
+    <t>P3 - 11:15-12:25</t>
+  </si>
+  <si>
+    <t>Lunch - 12:25-1:05</t>
+  </si>
+  <si>
+    <t>P4 - 1:05-2:05</t>
+  </si>
+  <si>
+    <t>P5 - 2:05-3:00</t>
+  </si>
   <si>
     <t>Mon 9th</t>
   </si>
   <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>MyTutor English (3:15-4:15)</t>
+  </si>
+  <si>
     <t>Tues 10th</t>
   </si>
   <si>
@@ -63,39 +112,114 @@
     <t>Mon 16th</t>
   </si>
   <si>
+    <t>Computer Science (at School)</t>
+  </si>
+  <si>
+    <t>Computer Science Theory Exam</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
     <t>Tues 17th</t>
   </si>
   <si>
+    <t>Biology Paper 1 Exam</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>Wed 18th</t>
   </si>
   <si>
+    <t>English Language Paper 1 Exam</t>
+  </si>
+  <si>
+    <t>Piano 11:05</t>
+  </si>
+  <si>
+    <t>Maths(?) (at School)</t>
+  </si>
+  <si>
+    <t>History (at School)</t>
+  </si>
+  <si>
     <t>Thurs 19th</t>
   </si>
   <si>
+    <t>History C&amp;P Exam</t>
+  </si>
+  <si>
+    <t>Maths (at School)</t>
+  </si>
+  <si>
     <t>Friday 20th</t>
   </si>
   <si>
+    <t>Maths Paper 1 Exam</t>
+  </si>
+  <si>
+    <t>Science (?) (at School)</t>
+  </si>
+  <si>
+    <t>Geography (at School)</t>
+  </si>
+  <si>
     <t>Sat 21st</t>
   </si>
   <si>
+    <t>Maths</t>
+  </si>
+  <si>
     <t>Sun 22nd</t>
   </si>
   <si>
     <t>Mon 23rd</t>
   </si>
   <si>
+    <t>Geography Paper 1 Exam</t>
+  </si>
+  <si>
     <t>Tues 24th</t>
   </si>
   <si>
+    <t>Science (at School)</t>
+  </si>
+  <si>
+    <t>English (at School)</t>
+  </si>
+  <si>
     <t>Wed 25th</t>
   </si>
   <si>
+    <t>English Literature Paper 1 Exam</t>
+  </si>
+  <si>
     <t>Thurs 26th</t>
   </si>
   <si>
+    <t>History (?)</t>
+  </si>
+  <si>
+    <t>Science (?)</t>
+  </si>
+  <si>
+    <t>Comp Sci (?)</t>
+  </si>
+  <si>
     <t>Friday 27th</t>
   </si>
   <si>
+    <t>Chemistry Paper 1 Exam</t>
+  </si>
+  <si>
+    <t>Comp Sci (at School)</t>
+  </si>
+  <si>
+    <t>Computer Science Programming Exam</t>
+  </si>
+  <si>
     <t>Sat 28th</t>
   </si>
   <si>
@@ -105,6 +229,9 @@
     <t>Mon 30th</t>
   </si>
   <si>
+    <t>Half Term</t>
+  </si>
+  <si>
     <t>Tues 31st</t>
   </si>
   <si>
@@ -129,12 +256,27 @@
     <t>Tues 7th</t>
   </si>
   <si>
+    <t>Maths Paper 2 Exam</t>
+  </si>
+  <si>
+    <t>Geography Paper 2 Exam</t>
+  </si>
+  <si>
     <t>Wed 8th</t>
   </si>
   <si>
+    <t>English Literature Paper 2 Exam</t>
+  </si>
+  <si>
     <t>Thurs 9th</t>
   </si>
   <si>
+    <t>History Nazi Germany Exam</t>
+  </si>
+  <si>
+    <t>Physics Paper 1 Exam</t>
+  </si>
+  <si>
     <t>Friday 10th</t>
   </si>
   <si>
@@ -147,15 +289,30 @@
     <t>Mon 13th</t>
   </si>
   <si>
+    <t>Maths Paper 3 Exam</t>
+  </si>
+  <si>
     <t>Tues 14th</t>
   </si>
   <si>
+    <t>Geography Paper 3 Exam</t>
+  </si>
+  <si>
+    <t>Music (?) (at School)</t>
+  </si>
+  <si>
     <t>Wed 15th</t>
   </si>
   <si>
+    <t>Biology Paper 2 Exam</t>
+  </si>
+  <si>
     <t>Thurs 16th</t>
   </si>
   <si>
+    <t>History Elizabethan Exam</t>
+  </si>
+  <si>
     <t>Friday 17th</t>
   </si>
   <si>
@@ -168,193 +325,28 @@
     <t>Mon 20th</t>
   </si>
   <si>
+    <t>Chemistry Paper 2 Exam</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Tues 21st</t>
   </si>
   <si>
+    <t>Music (at School)</t>
+  </si>
+  <si>
     <t>Wed 22nd</t>
   </si>
   <si>
+    <t>Music Listening Exam</t>
+  </si>
+  <si>
     <t>Thurs 23rd</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>Biology Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>English Language Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>History C&amp;P Exam</t>
-  </si>
-  <si>
-    <t>Maths Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>Geography Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>English Literature Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>Chemistry Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>Computer Science Programming Exam</t>
-  </si>
-  <si>
-    <t>Computer Science Theory Exam</t>
-  </si>
-  <si>
-    <t>Maths Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>Geography Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>English Literature Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>History Nazi Germany Exam</t>
-  </si>
-  <si>
-    <t>Physics Paper 1 Exam</t>
-  </si>
-  <si>
-    <t>Chemistry Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>Maths Paper 3 Exam</t>
-  </si>
-  <si>
-    <t>Geography Paper 3 Exam</t>
-  </si>
-  <si>
-    <t>Biology Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>History Elizabethan Exam</t>
-  </si>
-  <si>
-    <t>Music Listening Exam</t>
-  </si>
-  <si>
     <t>Physics Paper 2 Exam</t>
-  </si>
-  <si>
-    <t>English (at School)</t>
-  </si>
-  <si>
-    <t>Maths (at School)</t>
-  </si>
-  <si>
-    <t>Piano 11:05</t>
-  </si>
-  <si>
-    <t>MyTutor English (3:15-4:15)</t>
-  </si>
-  <si>
-    <t>Key:</t>
-  </si>
-  <si>
-    <t>at School</t>
-  </si>
-  <si>
-    <t>Piano Lessons</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>Computer Science (at School)</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>English(?) (at School)</t>
-  </si>
-  <si>
-    <t>History (at School)</t>
-  </si>
-  <si>
-    <t>Timings:</t>
-  </si>
-  <si>
-    <t>Lunch - 12:25-1:05</t>
-  </si>
-  <si>
-    <t>Maths(?) (at School)</t>
-  </si>
-  <si>
-    <t>Science (at School)</t>
-  </si>
-  <si>
-    <t>Geography (at School)</t>
-  </si>
-  <si>
-    <t>Science (?)</t>
-  </si>
-  <si>
-    <t>Comp Sci (at School)</t>
-  </si>
-  <si>
-    <t>Comp Sci (?)</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Music (at School)</t>
-  </si>
-  <si>
-    <t>Music (?) (at School)</t>
-  </si>
-  <si>
-    <t>History(?)</t>
-  </si>
-  <si>
-    <t>English (at School) (?)</t>
-  </si>
-  <si>
-    <t>History (?)</t>
-  </si>
-  <si>
-    <t>Optional/Unconfirmed(?)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>P1 - 8:55-9:55</t>
-  </si>
-  <si>
-    <t>Break - 9:55-10:20</t>
-  </si>
-  <si>
-    <t>P2 - 10:20-11:15</t>
-  </si>
-  <si>
-    <t>P3 - 11:15-12:25</t>
-  </si>
-  <si>
-    <t>P4 - 1:05-2:05</t>
-  </si>
-  <si>
-    <t>P5 - 2:05-3:00</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Science (?) (at School)</t>
-  </si>
-  <si>
-    <t>Half Term</t>
   </si>
 </sst>
 </file>
@@ -435,18 +427,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1128,10 +1120,10 @@
   </sheetPr>
   <dimension ref="B4:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,93 +1210,93 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="O6" s="6" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="T6" s="6"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="6" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="V9" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W9" s="6"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1320,19 +1312,19 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W10" s="6"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1348,19 +1340,19 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W11" s="6"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1369,7 +1361,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1379,659 +1371,658 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="V12" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W12" s="6"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W15" s="6"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W17" s="6"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
       <c r="L18" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="4"/>
       <c r="V18" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
-        <v>71</v>
+      <c r="H19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="P19" s="6"/>
       <c r="V19" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="P20" s="6"/>
       <c r="V20" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="V21" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" t="s">
-        <v>103</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X22" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="5"/>
       <c r="Z22" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W23" s="6"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="I25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="6" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="V26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W26" s="6"/>
+      <c r="R26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="5" t="s">
-        <v>71</v>
+      <c r="H27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W27" s="6"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="P28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>58</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W29" s="6"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W30" s="6"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W31" s="6"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W33" s="6"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W34" s="6"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W35" s="6"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W36" s="6"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W37" s="6"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W38" s="6"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W39" s="6"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W41" s="6"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="N42" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="V42" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="V43" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W43" s="6"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="N44" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="V44" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W44" s="6"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W45" s="6"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W46" s="6"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W47" s="6"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="V49" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W49" s="6"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="V50" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W50" s="6"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="V51" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W51" s="6"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="V52" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W52" s="6"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W53" s="6"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W54" s="6"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W55" s="6"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2040,73 +2031,143 @@
         <v>96</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W57" s="6"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="V58" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W58" s="6"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="V59" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W59" s="6"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="V60" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="W60" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="M21:P21"/>
+  <mergeCells count="108">
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="P9:R9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="M18:O18"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="D10:Q10"/>
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
     <mergeCell ref="V57:W57"/>
     <mergeCell ref="V58:W58"/>
     <mergeCell ref="V59:W59"/>
@@ -2128,81 +2189,10 @@
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="V23:W23"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="V14:W14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 Q26:Z26 A26:D26 A27:I27 L25:M25 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 A22:U22 Z22 W22 A30:Z49">
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z49 Q26:R26 Y26:Z26 U26">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
       <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
     </cfRule>
@@ -2213,7 +2203,7 @@
       <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 Q26:W26 C26:D26 C27:I27 L25:M25 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 O28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 G28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:U22 W22 C30:W49">
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 O28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 G28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W49 U26 Q26:R26">
     <cfRule type="notContainsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
@@ -2328,7 +2318,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 Q26:Z26 A26:D26 A27:I27 L25:M25 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 A22:U22 Z22 W22 A30:Z49</xm:sqref>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z49 Q26:R26 Y26:Z26 U26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">

--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-J\OneDrive\Documents\School\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBE95A-EFB0-4346-9E8D-D5578265D1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010865B-0DA0-494D-87BE-0FB2E5A21FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>Key:</t>
   </si>
@@ -199,15 +199,6 @@
     <t>Thurs 26th</t>
   </si>
   <si>
-    <t>History (?)</t>
-  </si>
-  <si>
-    <t>Science (?)</t>
-  </si>
-  <si>
-    <t>Comp Sci (?)</t>
-  </si>
-  <si>
     <t>Friday 27th</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>Chemistry Paper 2 Exam</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Tues 21st</t>
   </si>
   <si>
@@ -347,6 +335,18 @@
   </si>
   <si>
     <t>Physics Paper 2 Exam</t>
+  </si>
+  <si>
+    <t>English Language Paper 2 Exam</t>
+  </si>
+  <si>
+    <t>Total Exams:</t>
+  </si>
+  <si>
+    <t>Science S5 (?)</t>
+  </si>
+  <si>
+    <t>Completed:</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -441,6 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,12 +1119,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:AB60"/>
+  <dimension ref="B4:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21:G21"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,26 +1672,18 @@
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="P28" s="6"/>
       <c r="V28" s="6" t="s">
@@ -1700,16 +1693,16 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1717,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -1733,7 +1726,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>5</v>
@@ -1742,7 +1735,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>5</v>
@@ -1751,10 +1744,10 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V33" s="6" t="s">
         <v>5</v>
@@ -1763,10 +1756,10 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>5</v>
@@ -1775,10 +1768,10 @@
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>5</v>
@@ -1787,10 +1780,10 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V36" s="6" t="s">
         <v>5</v>
@@ -1799,10 +1792,10 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V37" s="6" t="s">
         <v>5</v>
@@ -1811,10 +1804,10 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V38" s="6" t="s">
         <v>5</v>
@@ -1823,10 +1816,10 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V39" s="6" t="s">
         <v>5</v>
@@ -1835,7 +1828,7 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V41" s="6" t="s">
         <v>5</v>
@@ -1844,16 +1837,16 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="N42" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -1865,10 +1858,10 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1881,16 +1874,16 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="N44" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -1902,8 +1895,14 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
       <c r="V45" s="6" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1910,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V46" s="6" t="s">
         <v>5</v>
@@ -1920,7 +1919,7 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V47" s="6" t="s">
         <v>5</v>
@@ -1929,10 +1928,10 @@
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -1944,15 +1943,15 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -1963,10 +1962,10 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1978,10 +1977,10 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -1992,7 +1991,7 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V53" s="6" t="s">
         <v>5</v>
@@ -2001,7 +2000,7 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V54" s="6" t="s">
         <v>5</v>
@@ -2010,7 +2009,7 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V55" s="6" t="s">
         <v>5</v>
@@ -2019,17 +2018,14 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="S57" t="s">
-        <v>96</v>
-      </c>
       <c r="V57" s="6" t="s">
         <v>5</v>
       </c>
@@ -2037,10 +2033,10 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -2053,10 +2049,10 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2068,10 +2064,10 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2081,8 +2077,36 @@
       </c>
       <c r="W60" s="6"/>
     </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>COUNTIF(D9:AB60, "*Exam")</f>
+        <v>22</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64" s="10">
+        <f>(I64/F64)</f>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="106">
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="O5:P5"/>
@@ -2090,10 +2114,8 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="V20:W20"/>
@@ -2107,17 +2129,8 @@
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="S17:U17"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:P21"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D57:G57"/>
@@ -2139,9 +2152,9 @@
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:F50"/>
@@ -2156,7 +2169,9 @@
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I25:O25"/>
-    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="O28:P28"/>
     <mergeCell ref="V47:W47"/>
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="V36:W36"/>
@@ -2191,8 +2206,9 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V55:W55"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z49 Q26:R26 Y26:Z26 U26">
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z44 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
       <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
     </cfRule>
@@ -2203,7 +2219,7 @@
       <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 O28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 G28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W49 U26 Q26:R26">
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W44 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28">
     <cfRule type="notContainsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
@@ -2318,7 +2334,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 O28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 G28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z49 Q26:R26 Y26:Z26 U26</xm:sqref>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z44 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">

--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-J\OneDrive\Documents\School\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010865B-0DA0-494D-87BE-0FB2E5A21FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9975D0-88B2-4FBF-A363-B6D4B03CDE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
   <si>
     <t>Key:</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Completed:</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Music (at School) (?)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -416,11 +422,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -442,6 +476,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,9 +1163,9 @@
   <dimension ref="B4:AB64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,6 +1871,29 @@
       <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
       <c r="V41" s="6" t="s">
         <v>5</v>
       </c>
@@ -1882,6 +1946,11 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
+      <c r="H44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="12"/>
       <c r="N44" s="6" t="s">
         <v>75</v>
       </c>
@@ -2100,8 +2169,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="110">
     <mergeCell ref="H63:I63"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="L41:R41"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="M17:O17"/>
@@ -2208,7 +2281,7 @@
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="V55:W55"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z44 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28">
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
       <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
     </cfRule>
@@ -2219,7 +2292,7 @@
       <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W44 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28">
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W40 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28 C42:W43 C41:D41 G41:H41 J41 L41 C44:H44 K44:W44 S41:W41">
     <cfRule type="notContainsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
@@ -2334,7 +2407,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z44 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28</xm:sqref>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">

--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-J\OneDrive\Documents\School\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9975D0-88B2-4FBF-A363-B6D4B03CDE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CE871-6A87-46E1-AFF4-D299DBD0BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
   <si>
     <t>Key:</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Geography Paper 3 Exam</t>
   </si>
   <si>
-    <t>Music (?) (at School)</t>
-  </si>
-  <si>
     <t>Wed 15th</t>
   </si>
   <si>
@@ -352,14 +349,17 @@
     <t>Geography</t>
   </si>
   <si>
-    <t>Music (at School) (?)</t>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Remaining:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +381,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -450,11 +458,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -463,7 +504,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,14 +525,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,12 +1211,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:AB64"/>
+  <dimension ref="B4:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41:R41"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,18 +1305,18 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="14"/>
       <c r="J5" t="s">
         <v>4</v>
       </c>
@@ -1275,337 +1326,337 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="9"/>
       <c r="S5" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="9"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="6"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="6" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="V9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="6"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="V9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="6"/>
+      <c r="V10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W11" s="6"/>
+      <c r="V11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="V12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="V12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="6"/>
+      <c r="V13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="6"/>
+      <c r="V14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="6"/>
+      <c r="V15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="9"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6" t="s">
+      <c r="N17" s="13"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="6"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="V18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="6"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="11"/>
+      <c r="V18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="9"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="V19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="V19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
+      <c r="N20" s="11"/>
+      <c r="O20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="V20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="6"/>
+      <c r="P20" s="9"/>
+      <c r="V20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
       <c r="L21" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="V21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="6"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
+      <c r="V21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="9"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="6"/>
+      <c r="V22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="9"/>
       <c r="X22" s="5"/>
       <c r="Z22" t="s">
         <v>43</v>
@@ -1615,49 +1666,49 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="6"/>
+      <c r="V23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="9"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="V25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="6"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="9"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1665,49 +1716,49 @@
       <c r="K26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="R26" s="6" t="s">
+      <c r="P26" s="11"/>
+      <c r="R26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6" t="s">
+      <c r="S26" s="13"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="6"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11"/>
       <c r="L27" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="6"/>
+      <c r="V27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="9"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -1723,487 +1774,551 @@
       <c r="K28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" s="6"/>
-      <c r="V28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28" s="6"/>
+      <c r="O28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="V28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="9"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
       <c r="L29" t="s">
         <v>5</v>
       </c>
       <c r="M29" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="V29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="6"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="V29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30" s="6"/>
+      <c r="V30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="9"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="V37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="V38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
-      <c r="V39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="V41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I41" s="17"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="11"/>
+      <c r="V41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="N42" s="6" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="V42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="V42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="9"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="V43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="S43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="11"/>
+      <c r="V43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="9"/>
+      <c r="Y43" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="12"/>
-      <c r="N44" s="6" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="N44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="V44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="V44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="9"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="V45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="11"/>
+      <c r="V45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="9"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="9"/>
+      <c r="X46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="6"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="9"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="V49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="V49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="9"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="H50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="11"/>
+      <c r="V50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W50" s="9"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="V50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="S51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="9"/>
+      <c r="AA51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="V51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W51" s="6"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="V52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="9"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="V52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="V53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W53" s="9"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="V54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="9"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="6"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="V55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W55" s="9"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W55" s="6"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="V57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="9"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="V57" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="V58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="9"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="V58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="V59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="9"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="V59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="V60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="V60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="9"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F64">
+        <v>99</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E64" s="9">
         <f>COUNTIF(D9:AB60, "*Exam")</f>
         <v>22</v>
       </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-      <c r="J64" s="10">
-        <f>(I64/F64)</f>
-        <v>0.40909090909090912</v>
-      </c>
+      <c r="F64" s="9"/>
+      <c r="H64">
+        <v>21</v>
+      </c>
+      <c r="I64" s="8">
+        <f>(H64/E64)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="K64" s="9">
+        <f>E64 - H64</f>
+        <v>1</v>
+      </c>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="119">
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="V55:W55"/>
     <mergeCell ref="H63:I63"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H44:J44"/>
     <mergeCell ref="L41:R41"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D57:G57"/>
@@ -2228,7 +2343,31 @@
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:G51"/>
@@ -2245,43 +2384,14 @@
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="S51:U51"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41">
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A52:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A43:S43 A41:D41 G41:H41 J41 L41 A44:H44 L44:Z44 S41:Z41 A42:H42 M42:Z42 K42 U43:Z43 A51:S51 V51:W51 Y51">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
       <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
     </cfRule>
@@ -2292,7 +2402,7 @@
       <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W40 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28 C42:W43 C41:D41 G41:H41 J41 L41 C44:H44 K44:W44 S41:W41">
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C52:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W40 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28 C43:S43 C41:D41 G41:H41 J41 L41 C44:H44 L44:W44 S41:W41 C42:H42 M42:W42 K42 U43:W43 C51:S51 V51:W51">
     <cfRule type="notContainsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
@@ -2407,7 +2517,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41</xm:sqref>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A52:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A43:S43 A41:D41 G41:H41 J41 L41 A44:H44 L44:Z44 S41:Z41 A42:H42 M42:Z42 K42 U43:Z43 A51:S51 V51:W51 Y51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">

--- a/Revision Timetable (In Progress).xlsx
+++ b/Revision Timetable (In Progress).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-J\OneDrive\Documents\School\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9975D0-88B2-4FBF-A363-B6D4B03CDE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7704EC-08E4-4DB2-BC6F-68051754E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F863D5C-BB86-4DCF-8F38-5741430113A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
   <si>
     <t>Key:</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Geography Paper 3 Exam</t>
   </si>
   <si>
-    <t>Music (?) (at School)</t>
-  </si>
-  <si>
     <t>Wed 15th</t>
   </si>
   <si>
@@ -352,14 +349,17 @@
     <t>Geography</t>
   </si>
   <si>
-    <t>Music (at School) (?)</t>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Remaining:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +381,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -450,11 +458,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -463,7 +504,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,14 +525,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,12 +1211,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:AB64"/>
+  <dimension ref="B4:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41:R41"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,18 +1305,18 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="14"/>
       <c r="J5" t="s">
         <v>4</v>
       </c>
@@ -1275,337 +1326,337 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="9"/>
       <c r="S5" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="9"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="6"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="6" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="V9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="6"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="V9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="6"/>
+      <c r="V10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W11" s="6"/>
+      <c r="V11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="V12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="V12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="6"/>
+      <c r="V13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="6"/>
+      <c r="V14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="6"/>
+      <c r="V15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="9"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6" t="s">
+      <c r="N17" s="13"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="6"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="V18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="6"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="11"/>
+      <c r="V18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="9"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="V19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="V19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
+      <c r="N20" s="11"/>
+      <c r="O20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="V20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="6"/>
+      <c r="P20" s="9"/>
+      <c r="V20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
       <c r="L21" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="V21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="6"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
+      <c r="V21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="9"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="6"/>
+      <c r="V22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="9"/>
       <c r="X22" s="5"/>
       <c r="Z22" t="s">
         <v>43</v>
@@ -1615,49 +1666,49 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="6"/>
+      <c r="V23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="9"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="V25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="6"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="9"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1665,49 +1716,49 @@
       <c r="K26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="R26" s="6" t="s">
+      <c r="P26" s="11"/>
+      <c r="R26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6" t="s">
+      <c r="S26" s="13"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="6"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11"/>
       <c r="L27" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="6"/>
+      <c r="V27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="9"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -1723,487 +1774,551 @@
       <c r="K28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" s="6"/>
-      <c r="V28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28" s="6"/>
+      <c r="O28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="V28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="9"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
       <c r="L29" t="s">
         <v>5</v>
       </c>
       <c r="M29" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="V29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="6"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="V29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30" s="6"/>
+      <c r="V30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="9"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="V37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="V38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
-      <c r="V39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="V41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I41" s="17"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="11"/>
+      <c r="V41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="N42" s="6" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="V42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="V42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="9"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="V43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="S43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="11"/>
+      <c r="V43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="9"/>
+      <c r="Y43" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="12"/>
-      <c r="N44" s="6" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="N44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="V44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="V44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="9"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="V45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="11"/>
+      <c r="V45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="9"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="9"/>
+      <c r="X46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="6"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="9"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="V49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="V49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="9"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="H50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="11"/>
+      <c r="V50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W50" s="9"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="V50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="S51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="9"/>
+      <c r="AA51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="V51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W51" s="6"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="V52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="9"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="V52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="V53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W53" s="9"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="V54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="9"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="6"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="V55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W55" s="9"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W55" s="6"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="V57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="9"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="V57" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="V58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="9"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="V58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="V59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="9"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="V59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="V60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="V60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="9"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F64">
+        <v>99</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E64" s="9">
         <f>COUNTIF(D9:AB60, "*Exam")</f>
         <v>22</v>
       </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-      <c r="J64" s="10">
-        <f>(I64/F64)</f>
-        <v>0.40909090909090912</v>
-      </c>
+      <c r="F64" s="9"/>
+      <c r="H64">
+        <v>22</v>
+      </c>
+      <c r="I64" s="8">
+        <f>(H64/E64)</f>
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <f>E64 - H64</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="119">
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="V55:W55"/>
     <mergeCell ref="H63:I63"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H44:J44"/>
     <mergeCell ref="L41:R41"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D57:G57"/>
@@ -2228,7 +2343,31 @@
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:G51"/>
@@ -2245,43 +2384,14 @@
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="S51:U51"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41">
+  <conditionalFormatting sqref="A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A52:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A43:S43 A41:D41 G41:H41 J41 L41 A44:H44 L44:Z44 S41:Z41 A42:H42 M42:Z42 K42 U43:Z43 A51:S51 V51:W51 Y51">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="(?)">
       <formula>NOT(ISERROR(SEARCH("(?)",A5)))</formula>
     </cfRule>
@@ -2292,7 +2402,7 @@
       <formula>NOT(ISERROR(SEARCH("at School",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C51:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W40 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28 C42:W43 C41:D41 G41:H41 J41 L41 C44:H44 K44:W44 S41:W41">
+  <conditionalFormatting sqref="O19 C19:M19 C17:I17 S17:W17 O20:P20 L21:M21 Q19:W21 C21:I21 C25:I25 P25:W25 C26:D26 C27:I27 L26:O26 G26:I26 C28:D28 I28 L27:W27 L28:M28 Q28:W28 C29:I29 L29:W29 C18:H18 C20:H20 M20 C59:W60 C58:D58 I58:W58 C52:W57 C50:H50 K50:W50 F28 C8:W8 C10:W16 C9:D9 P9:W9 L17:M18 P18:W18 C23:W24 C22:V22 C30:W40 U26 Q26:R26 C46:W49 C45:D45 H45:W45 O28 C43:S43 C41:D41 G41:H41 J41 L41 C44:H44 L44:W44 S41:W41 C42:H42 M42:W42 K42 U43:W43 C51:S51 V51:W51">
     <cfRule type="notContainsBlanks" dxfId="10" priority="16">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
@@ -2407,7 +2517,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A51:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A42:Z43 A41:D41 G41:H41 J41 L41 A44:H44 K44:Z44 S41:Z41</xm:sqref>
+          <xm:sqref>A17:I17 V17:Z17 O19 A19:M19 S17 O20:P20 L21:M21 Q19:Z21 A21:I21 A25:I25 P25:Z25 A26:D26 A27:I27 L26:O26 G26:I26 A28:D28 I28 L27:Z27 L28:M28 Q28:Z28 A29:I29 L29:Z29 M17:M18 A18:H18 A20:H20 M20 A59:Z60 A58:D58 I58:Z58 A52:Z57 A50:H50 K50:Z50 F28 A7:Z8 A10:Z16 A9:D9 P9:Z9 P18:Z18 A6:B6 A5:T5 X5:Z6 O6:P6 A23:Z24 Z22 A22:V22 A30:Z40 Q26:R26 Y26:Z26 U26 A46:Z49 A45:D45 H45:Z45 O28 A43:S43 A41:D41 G41:H41 J41 L41 A44:H44 L44:Z44 S41:Z41 A42:H42 M42:Z42 K42 U43:Z43 A51:S51 V51:W51 Y51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{96FA12F8-1550-4CEB-9E7F-FB1FE97A24BE}">
